--- a/src/main/resources/static/template/user_blacklist.xlsx
+++ b/src/main/resources/static/template/user_blacklist.xlsx
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -54,6 +54,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -61,46 +100,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,21 +153,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -137,23 +160,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,38 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,31 +207,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,151 +375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,11 +401,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,7 +420,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,26 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +466,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,17 +490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,10 +506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,145 +518,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,36 +985,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
+  <sheetProtection password="CED7" sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/static/template/user_blacklist.xlsx
+++ b/src/main/resources/static/template/user_blacklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>*姓名</t>
   </si>
@@ -25,6 +25,9 @@
     <t>*身份证号码</t>
   </si>
   <si>
+    <t>*所属企业</t>
+  </si>
+  <si>
     <t>*加入原因</t>
   </si>
 </sst>
@@ -33,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -54,26 +57,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,114 +156,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,13 +210,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,169 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,41 +419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -462,6 +430,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +467,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -506,10 +509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,137 +521,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,6 +667,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,22 +991,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="22.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1010,12 +1017,15 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CED7" sheet="1" formatCells="0" formatColumns="0" formatRows="0" objects="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
